--- a/data/papers.xlsx
+++ b/data/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD885733-95AA-8146-8A35-64942935CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99550C69-DF6F-1D40-9A3B-0E0B37FEC38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10326" uniqueCount="5896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10332" uniqueCount="5899">
   <si>
     <t>paper_id</t>
   </si>
@@ -17531,9 +17531,6 @@
     <t>ASE-2022-94</t>
   </si>
   <si>
-    <t>So Many Fuzzers, So Little Time鉁: Experience from Evaluating Fuzzers on the Contiki-NG Network (Hay)Stack.</t>
-  </si>
-  <si>
     <t>ASE-2022-95</t>
   </si>
   <si>
@@ -17734,6 +17731,20 @@
   <si>
     <t>https://github.com/dVermin/dVermin;https://github.com/dVermin/dVermin-Python</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>So Many Fuzzers, So Little Time*: Experience from Evaluating Fuzzers on the Contiki-NG Network (Hay)Stack.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASE-2022-56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inline Tests.</t>
+  </si>
+  <si>
+    <t>https://github.com/EngineeringSoftware/inlinetest</t>
   </si>
 </sst>
 </file>
@@ -18164,16 +18175,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2196"/>
+  <dimension ref="A1:F2197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2187" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B2201" sqref="B2201"/>
+    <sheetView tabSelected="1" topLeftCell="A2123" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F2138" sqref="F2138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
@@ -51612,10 +51623,10 @@
         <v>19</v>
       </c>
       <c r="E2083" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2083" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2083" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2084" spans="1:6">
@@ -51692,10 +51703,10 @@
         <v>19</v>
       </c>
       <c r="E2089" s="7" t="s">
+        <v>5879</v>
+      </c>
+      <c r="F2089" s="7" t="s">
         <v>5880</v>
-      </c>
-      <c r="F2089" s="7" t="s">
-        <v>5881</v>
       </c>
     </row>
     <row r="2090" spans="1:6">
@@ -51709,13 +51720,13 @@
         <v>5571</v>
       </c>
       <c r="D2090" s="5" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E2090" s="7" t="s">
         <v>5877</v>
       </c>
-      <c r="E2090" s="7" t="s">
+      <c r="F2090" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2090" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2091" spans="1:6">
@@ -51732,10 +51743,10 @@
         <v>19</v>
       </c>
       <c r="E2091" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2091" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2091" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2092" spans="1:6">
@@ -51752,10 +51763,10 @@
         <v>19</v>
       </c>
       <c r="E2092" s="7" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="F2092" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2093" spans="1:6">
@@ -51796,10 +51807,10 @@
         <v>19</v>
       </c>
       <c r="E2095" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2095" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2095" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2096" spans="1:6" ht="45">
@@ -51810,16 +51821,16 @@
         <v>5676</v>
       </c>
       <c r="C2096" s="10" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="D2096" s="9" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E2096" s="7" t="s">
         <v>5877</v>
       </c>
-      <c r="E2096" s="7" t="s">
-        <v>5878</v>
-      </c>
       <c r="F2096" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2097" spans="1:6">
@@ -51836,10 +51847,10 @@
         <v>19</v>
       </c>
       <c r="E2097" s="7" t="s">
+        <v>5881</v>
+      </c>
+      <c r="F2097" s="7" t="s">
         <v>5882</v>
-      </c>
-      <c r="F2097" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2098" spans="1:6">
@@ -51856,10 +51867,10 @@
         <v>19</v>
       </c>
       <c r="E2098" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2098" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2098" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2099" spans="1:6">
@@ -51876,10 +51887,10 @@
         <v>19</v>
       </c>
       <c r="E2099" s="7" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="F2099" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2100" spans="1:6">
@@ -51896,10 +51907,10 @@
         <v>19</v>
       </c>
       <c r="E2100" s="7" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="F2100" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2101" spans="1:6">
@@ -51928,10 +51939,10 @@
         <v>19</v>
       </c>
       <c r="E2102" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2102" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2103" spans="1:6">
@@ -51948,10 +51959,10 @@
         <v>19</v>
       </c>
       <c r="E2103" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2103" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2104" spans="1:6">
@@ -51968,10 +51979,10 @@
         <v>19</v>
       </c>
       <c r="E2104" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2104" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2105" spans="1:6">
@@ -51988,10 +51999,10 @@
         <v>19</v>
       </c>
       <c r="E2105" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2105" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2106" spans="1:6">
@@ -52002,16 +52013,16 @@
         <v>5696</v>
       </c>
       <c r="C2106" s="8" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="D2106" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2106" s="7" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="F2106" s="7" t="s">
-        <v>5879</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="2107" spans="1:6">
@@ -52028,10 +52039,10 @@
         <v>19</v>
       </c>
       <c r="E2107" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2107" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2108" spans="1:6" ht="30">
@@ -52042,16 +52053,16 @@
         <v>5700</v>
       </c>
       <c r="C2108" s="10" t="s">
-        <v>5889</v>
+        <v>5888</v>
       </c>
       <c r="D2108" s="9" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E2108" s="7" t="s">
         <v>5877</v>
       </c>
-      <c r="E2108" s="7" t="s">
-        <v>5878</v>
-      </c>
       <c r="F2108" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2109" spans="1:6">
@@ -52068,10 +52079,10 @@
         <v>19</v>
       </c>
       <c r="E2109" s="7" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="F2109" s="7" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="2110" spans="1:6">
@@ -52085,13 +52096,13 @@
         <v>5585</v>
       </c>
       <c r="D2110" s="9" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E2110" s="7" t="s">
         <v>5877</v>
       </c>
-      <c r="E2110" s="7" t="s">
-        <v>5878</v>
-      </c>
       <c r="F2110" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2111" spans="1:6">
@@ -52108,10 +52119,10 @@
         <v>19</v>
       </c>
       <c r="E2111" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2111" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2112" spans="1:6">
@@ -52128,10 +52139,10 @@
         <v>19</v>
       </c>
       <c r="E2112" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2112" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2113" spans="1:6">
@@ -52142,16 +52153,16 @@
         <v>5710</v>
       </c>
       <c r="C2113" s="8" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="D2113" s="9" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="E2113" s="7" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="F2113" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2114" spans="1:6">
@@ -52168,10 +52179,10 @@
         <v>19</v>
       </c>
       <c r="E2114" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2114" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2115" spans="1:6">
@@ -52188,10 +52199,10 @@
         <v>19</v>
       </c>
       <c r="E2115" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2115" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2116" spans="1:6">
@@ -52208,10 +52219,10 @@
         <v>19</v>
       </c>
       <c r="E2116" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2116" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2117" spans="1:6">
@@ -52240,10 +52251,10 @@
         <v>19</v>
       </c>
       <c r="E2118" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2118" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2119" spans="1:6">
@@ -52272,10 +52283,10 @@
         <v>19</v>
       </c>
       <c r="E2120" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2120" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2121" spans="1:6">
@@ -52304,10 +52315,10 @@
         <v>19</v>
       </c>
       <c r="E2122" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2122" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2123" spans="1:6">
@@ -52324,10 +52335,10 @@
         <v>19</v>
       </c>
       <c r="E2123" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2123" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2124" spans="1:6">
@@ -52392,10 +52403,10 @@
         <v>19</v>
       </c>
       <c r="E2128" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2128" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2129" spans="1:6">
@@ -52436,10 +52447,10 @@
         <v>19</v>
       </c>
       <c r="E2131" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2131" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2131" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2132" spans="1:6">
@@ -52468,10 +52479,10 @@
         <v>19</v>
       </c>
       <c r="E2133" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2133" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2133" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2134" spans="1:6">
@@ -52488,10 +52499,10 @@
         <v>19</v>
       </c>
       <c r="E2134" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2134" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2135" spans="1:6">
@@ -52508,10 +52519,10 @@
         <v>19</v>
       </c>
       <c r="E2135" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2135" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2136" spans="1:6">
@@ -52522,16 +52533,16 @@
         <v>5756</v>
       </c>
       <c r="C2136" s="8" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="D2136" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2136" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2136" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2136" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2137" spans="1:6">
@@ -52542,716 +52553,724 @@
         <v>5758</v>
       </c>
       <c r="C2137" s="8" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
       <c r="D2137" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2137" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2137" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2138" spans="1:6">
-      <c r="A2138" s="3" t="s">
-        <v>5759</v>
+      <c r="A2138" s="7" t="s">
+        <v>5896</v>
       </c>
       <c r="B2138" s="3" t="s">
-        <v>5760</v>
-      </c>
-      <c r="C2138" s="3" t="s">
-        <v>5600</v>
-      </c>
-      <c r="D2138" s="6" t="s">
-        <v>19</v>
+        <v>5897</v>
+      </c>
+      <c r="C2138" s="8" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D2138" s="9" t="s">
+        <v>5876</v>
       </c>
       <c r="E2138" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2138" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2139" spans="1:6">
       <c r="A2139" s="3" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="B2139" s="3" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="C2139" s="3" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="D2139" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2139" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2139" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2140" spans="1:6">
       <c r="A2140" s="3" t="s">
-        <v>5763</v>
+        <v>5761</v>
       </c>
       <c r="B2140" s="3" t="s">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="C2140" s="3" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="D2140" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2140" s="7" t="s">
-        <v>5882</v>
+        <v>5877</v>
       </c>
       <c r="F2140" s="7" t="s">
-        <v>5883</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2141" spans="1:6">
       <c r="A2141" s="3" t="s">
-        <v>5765</v>
+        <v>5763</v>
       </c>
       <c r="B2141" s="3" t="s">
-        <v>5766</v>
+        <v>5764</v>
       </c>
       <c r="C2141" s="3" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="D2141" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2141" s="7" t="s">
+        <v>5881</v>
+      </c>
+      <c r="F2141" s="7" t="s">
         <v>5882</v>
-      </c>
-      <c r="F2141" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2142" spans="1:6">
       <c r="A2142" s="3" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="B2142" s="3" t="s">
-        <v>5768</v>
+        <v>5766</v>
       </c>
       <c r="C2142" s="3" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="D2142" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2142" s="7" t="s">
+        <v>5881</v>
+      </c>
+      <c r="F2142" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2142" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2143" spans="1:6">
       <c r="A2143" s="3" t="s">
-        <v>5769</v>
+        <v>5767</v>
       </c>
       <c r="B2143" s="3" t="s">
-        <v>5770</v>
-      </c>
-      <c r="C2143" s="3"/>
-      <c r="D2143" s="4"/>
-      <c r="E2143" s="3"/>
-      <c r="F2143" s="3"/>
+        <v>5768</v>
+      </c>
+      <c r="C2143" s="3" t="s">
+        <v>5604</v>
+      </c>
+      <c r="D2143" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2143" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2143" s="7" t="s">
+        <v>5878</v>
+      </c>
     </row>
     <row r="2144" spans="1:6">
       <c r="A2144" s="3" t="s">
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="B2144" s="3" t="s">
-        <v>5772</v>
-      </c>
-      <c r="C2144" s="3" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D2144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2144" s="7" t="s">
-        <v>5878</v>
-      </c>
-      <c r="F2144" s="7" t="s">
-        <v>5881</v>
-      </c>
+        <v>5770</v>
+      </c>
+      <c r="C2144" s="3"/>
+      <c r="D2144" s="4"/>
+      <c r="E2144" s="3"/>
+      <c r="F2144" s="3"/>
     </row>
     <row r="2145" spans="1:6">
       <c r="A2145" s="3" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="B2145" s="3" t="s">
-        <v>5774</v>
-      </c>
-      <c r="C2145" s="3"/>
-      <c r="D2145" s="4"/>
-      <c r="E2145" s="3"/>
-      <c r="F2145" s="3"/>
+        <v>5772</v>
+      </c>
+      <c r="C2145" s="3" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D2145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2145" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2145" s="7" t="s">
+        <v>5880</v>
+      </c>
     </row>
     <row r="2146" spans="1:6">
       <c r="A2146" s="3" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="B2146" s="3" t="s">
-        <v>5776</v>
-      </c>
-      <c r="C2146" s="3" t="s">
-        <v>5606</v>
-      </c>
-      <c r="D2146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2146" s="7" t="s">
-        <v>5878</v>
-      </c>
-      <c r="F2146" s="7" t="s">
-        <v>5881</v>
-      </c>
+        <v>5774</v>
+      </c>
+      <c r="C2146" s="3"/>
+      <c r="D2146" s="4"/>
+      <c r="E2146" s="3"/>
+      <c r="F2146" s="3"/>
     </row>
     <row r="2147" spans="1:6">
       <c r="A2147" s="3" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="B2147" s="3" t="s">
-        <v>5778</v>
-      </c>
-      <c r="C2147" s="3"/>
-      <c r="D2147" s="4"/>
-      <c r="E2147" s="3"/>
-      <c r="F2147" s="3"/>
+        <v>5776</v>
+      </c>
+      <c r="C2147" s="3" t="s">
+        <v>5606</v>
+      </c>
+      <c r="D2147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2147" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2147" s="7" t="s">
+        <v>5880</v>
+      </c>
     </row>
     <row r="2148" spans="1:6">
       <c r="A2148" s="3" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
       <c r="B2148" s="3" t="s">
-        <v>5780</v>
-      </c>
-      <c r="C2148" s="3" t="s">
-        <v>5607</v>
-      </c>
-      <c r="D2148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2148" s="7" t="s">
-        <v>5885</v>
-      </c>
-      <c r="F2148" s="7" t="s">
-        <v>5883</v>
-      </c>
+        <v>5778</v>
+      </c>
+      <c r="C2148" s="3"/>
+      <c r="D2148" s="4"/>
+      <c r="E2148" s="3"/>
+      <c r="F2148" s="3"/>
     </row>
     <row r="2149" spans="1:6">
       <c r="A2149" s="3" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="B2149" s="3" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="C2149" s="3" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="D2149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2149" s="7" t="s">
-        <v>5878</v>
+        <v>5884</v>
       </c>
       <c r="F2149" s="7" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2150" spans="1:6">
       <c r="A2150" s="3" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="B2150" s="3" t="s">
-        <v>5784</v>
-      </c>
-      <c r="C2150" s="8" t="s">
-        <v>5893</v>
-      </c>
-      <c r="D2150" s="9" t="s">
+        <v>5782</v>
+      </c>
+      <c r="C2150" s="3" t="s">
+        <v>5608</v>
+      </c>
+      <c r="D2150" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2150" s="7" t="s">
         <v>5877</v>
       </c>
-      <c r="E2150" s="7" t="s">
-        <v>5878</v>
-      </c>
       <c r="F2150" s="7" t="s">
-        <v>5883</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2151" spans="1:6">
       <c r="A2151" s="3" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="B2151" s="3" t="s">
-        <v>5786</v>
-      </c>
-      <c r="C2151" s="3" t="s">
-        <v>5609</v>
-      </c>
-      <c r="D2151" s="6" t="s">
-        <v>19</v>
+        <v>5784</v>
+      </c>
+      <c r="C2151" s="8" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D2151" s="9" t="s">
+        <v>5876</v>
       </c>
       <c r="E2151" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2151" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2152" spans="1:6">
       <c r="A2152" s="3" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="B2152" s="3" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="C2152" s="3" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="D2152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2152" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2152" s="7" t="s">
         <v>5882</v>
-      </c>
-      <c r="F2152" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2153" spans="1:6">
       <c r="A2153" s="3" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="B2153" s="3" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="C2153" s="3" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="D2153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2153" s="7" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="F2153" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2154" spans="1:6">
       <c r="A2154" s="3" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="B2154" s="3" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="C2154" s="3" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="D2154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2154" s="7" t="s">
-        <v>5885</v>
+        <v>5877</v>
       </c>
       <c r="F2154" s="7" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2155" spans="1:6">
       <c r="A2155" s="3" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="B2155" s="3" t="s">
-        <v>5794</v>
-      </c>
-      <c r="C2155" s="3"/>
-      <c r="D2155" s="4"/>
-      <c r="E2155" s="3"/>
-      <c r="F2155" s="3"/>
+        <v>5792</v>
+      </c>
+      <c r="C2155" s="3" t="s">
+        <v>5612</v>
+      </c>
+      <c r="D2155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2155" s="7" t="s">
+        <v>5884</v>
+      </c>
+      <c r="F2155" s="7" t="s">
+        <v>5880</v>
+      </c>
     </row>
     <row r="2156" spans="1:6">
       <c r="A2156" s="3" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="B2156" s="3" t="s">
-        <v>5796</v>
-      </c>
-      <c r="C2156" s="3" t="s">
-        <v>5613</v>
-      </c>
-      <c r="D2156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2156" s="7" t="s">
-        <v>5885</v>
-      </c>
-      <c r="F2156" s="7" t="s">
-        <v>5879</v>
-      </c>
+        <v>5794</v>
+      </c>
+      <c r="C2156" s="3"/>
+      <c r="D2156" s="4"/>
+      <c r="E2156" s="3"/>
+      <c r="F2156" s="3"/>
     </row>
     <row r="2157" spans="1:6">
       <c r="A2157" s="3" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="B2157" s="3" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="C2157" s="3" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="D2157" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2157" s="7" t="s">
+        <v>5884</v>
+      </c>
+      <c r="F2157" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2157" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2158" spans="1:6">
       <c r="A2158" s="3" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="B2158" s="3" t="s">
-        <v>5800</v>
-      </c>
-      <c r="C2158" s="3"/>
-      <c r="D2158" s="4"/>
-      <c r="E2158" s="3"/>
-      <c r="F2158" s="3"/>
+        <v>5798</v>
+      </c>
+      <c r="C2158" s="3" t="s">
+        <v>5614</v>
+      </c>
+      <c r="D2158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2158" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2158" s="7" t="s">
+        <v>5882</v>
+      </c>
     </row>
     <row r="2159" spans="1:6">
       <c r="A2159" s="3" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="B2159" s="3" t="s">
-        <v>5802</v>
-      </c>
-      <c r="C2159" s="8" t="s">
-        <v>5887</v>
-      </c>
-      <c r="D2159" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2159" s="7" t="s">
-        <v>5878</v>
-      </c>
-      <c r="F2159" s="7" t="s">
-        <v>5883</v>
-      </c>
+        <v>5800</v>
+      </c>
+      <c r="C2159" s="3"/>
+      <c r="D2159" s="4"/>
+      <c r="E2159" s="3"/>
+      <c r="F2159" s="3"/>
     </row>
     <row r="2160" spans="1:6">
       <c r="A2160" s="3" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="B2160" s="3" t="s">
-        <v>5804</v>
-      </c>
-      <c r="C2160" s="3" t="s">
-        <v>5615</v>
+        <v>5802</v>
+      </c>
+      <c r="C2160" s="8" t="s">
+        <v>5886</v>
       </c>
       <c r="D2160" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2160" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2160" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2161" spans="1:6">
       <c r="A2161" s="3" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="B2161" s="3" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="C2161" s="3" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="D2161" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2161" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2161" s="7" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2162" spans="1:6">
       <c r="A2162" s="3" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="B2162" s="3" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="C2162" s="3" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="D2162" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2162" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2162" s="7" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2163" spans="1:6">
       <c r="A2163" s="3" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="B2163" s="3" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="C2163" s="3" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="D2163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2163" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2163" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2163" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2164" spans="1:6">
       <c r="A2164" s="3" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="B2164" s="3" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="C2164" s="3" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="D2164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2164" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2164" s="7" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2165" spans="1:6">
       <c r="A2165" s="3" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="B2165" s="3" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="C2165" s="3" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="D2165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2165" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2165" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2165" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2166" spans="1:6">
       <c r="A2166" s="3" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="B2166" s="3" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="C2166" s="3" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="D2166" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2166" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2166" s="7" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2167" spans="1:6">
       <c r="A2167" s="3" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="B2167" s="3" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="C2167" s="3" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="D2167" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2167" s="7" t="s">
-        <v>5882</v>
+        <v>5877</v>
       </c>
       <c r="F2167" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2168" spans="1:6">
       <c r="A2168" s="3" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="B2168" s="3" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="C2168" s="3" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="D2168" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2168" s="7" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="F2168" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2169" spans="1:6">
       <c r="A2169" s="3" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="B2169" s="3" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="C2169" s="3" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="D2169" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2169" s="7" t="s">
-        <v>5882</v>
+        <v>5877</v>
       </c>
       <c r="F2169" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2170" spans="1:6">
       <c r="A2170" s="3" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="B2170" s="3" t="s">
-        <v>5824</v>
-      </c>
-      <c r="C2170" s="8" t="s">
-        <v>5894</v>
-      </c>
-      <c r="D2170" s="9" t="s">
-        <v>5877</v>
+        <v>5822</v>
+      </c>
+      <c r="C2170" s="3" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D2170" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E2170" s="7" t="s">
-        <v>5885</v>
+        <v>5881</v>
       </c>
       <c r="F2170" s="7" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2171" spans="1:6">
       <c r="A2171" s="3" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="B2171" s="3" t="s">
-        <v>5826</v>
-      </c>
-      <c r="C2171" s="3" t="s">
-        <v>5625</v>
-      </c>
-      <c r="D2171" s="6" t="s">
-        <v>19</v>
+        <v>5824</v>
+      </c>
+      <c r="C2171" s="8" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D2171" s="9" t="s">
+        <v>5876</v>
       </c>
       <c r="E2171" s="7" t="s">
+        <v>5884</v>
+      </c>
+      <c r="F2171" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2171" s="7" t="s">
-        <v>5881</v>
       </c>
     </row>
     <row r="2172" spans="1:6">
       <c r="A2172" s="3" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="B2172" s="3" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="C2172" s="3" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="D2172" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2172" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2172" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2173" spans="1:6">
       <c r="A2173" s="3" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="B2173" s="3" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="C2173" s="3" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="D2173" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2173" s="7" t="s">
-        <v>5885</v>
+        <v>5877</v>
       </c>
       <c r="F2173" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2174" spans="1:6">
       <c r="A2174" s="3" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="B2174" s="3" t="s">
-        <v>5832</v>
-      </c>
-      <c r="C2174" s="3"/>
-      <c r="D2174" s="4"/>
-      <c r="E2174" s="3"/>
-      <c r="F2174" s="3"/>
+        <v>5830</v>
+      </c>
+      <c r="C2174" s="3" t="s">
+        <v>5627</v>
+      </c>
+      <c r="D2174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2174" s="7" t="s">
+        <v>5884</v>
+      </c>
+      <c r="F2174" s="7" t="s">
+        <v>5880</v>
+      </c>
     </row>
     <row r="2175" spans="1:6">
       <c r="A2175" s="3" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="B2175" s="3" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="C2175" s="3"/>
       <c r="D2175" s="4"/>
@@ -53260,10 +53279,10 @@
     </row>
     <row r="2176" spans="1:6">
       <c r="A2176" s="3" t="s">
-        <v>5835</v>
-      </c>
-      <c r="B2176" s="3" t="s">
-        <v>5836</v>
+        <v>5833</v>
+      </c>
+      <c r="B2176" s="7" t="s">
+        <v>5895</v>
       </c>
       <c r="C2176" s="3"/>
       <c r="D2176" s="4"/>
@@ -53272,394 +53291,406 @@
     </row>
     <row r="2177" spans="1:6">
       <c r="A2177" s="3" t="s">
-        <v>5837</v>
+        <v>5834</v>
       </c>
       <c r="B2177" s="3" t="s">
-        <v>5838</v>
-      </c>
-      <c r="C2177" s="3" t="s">
-        <v>5628</v>
-      </c>
-      <c r="D2177" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2177" s="7" t="s">
-        <v>5878</v>
-      </c>
-      <c r="F2177" s="7" t="s">
-        <v>5883</v>
-      </c>
+        <v>5835</v>
+      </c>
+      <c r="C2177" s="3"/>
+      <c r="D2177" s="4"/>
+      <c r="E2177" s="3"/>
+      <c r="F2177" s="3"/>
     </row>
     <row r="2178" spans="1:6">
       <c r="A2178" s="3" t="s">
-        <v>5839</v>
+        <v>5836</v>
       </c>
       <c r="B2178" s="3" t="s">
-        <v>5840</v>
+        <v>5837</v>
       </c>
       <c r="C2178" s="3" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="D2178" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2178" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2178" s="7" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2179" spans="1:6">
       <c r="A2179" s="3" t="s">
-        <v>5841</v>
+        <v>5838</v>
       </c>
       <c r="B2179" s="3" t="s">
-        <v>5842</v>
+        <v>5839</v>
       </c>
       <c r="C2179" s="3" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="D2179" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2179" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2179" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2180" spans="1:6">
       <c r="A2180" s="3" t="s">
-        <v>5843</v>
+        <v>5840</v>
       </c>
       <c r="B2180" s="3" t="s">
-        <v>5844</v>
+        <v>5841</v>
       </c>
       <c r="C2180" s="3" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="D2180" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2180" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2180" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2181" spans="1:6">
       <c r="A2181" s="3" t="s">
-        <v>5845</v>
+        <v>5842</v>
       </c>
       <c r="B2181" s="3" t="s">
-        <v>5846</v>
-      </c>
-      <c r="C2181" s="8" t="s">
-        <v>5895</v>
-      </c>
-      <c r="D2181" s="9" t="s">
+        <v>5843</v>
+      </c>
+      <c r="C2181" s="3" t="s">
+        <v>5631</v>
+      </c>
+      <c r="D2181" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2181" s="7" t="s">
         <v>5877</v>
       </c>
-      <c r="E2181" s="7" t="s">
-        <v>5878</v>
-      </c>
       <c r="F2181" s="7" t="s">
-        <v>5883</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2182" spans="1:6">
       <c r="A2182" s="3" t="s">
-        <v>5847</v>
+        <v>5844</v>
       </c>
       <c r="B2182" s="3" t="s">
-        <v>5848</v>
-      </c>
-      <c r="C2182" s="3" t="s">
-        <v>5632</v>
-      </c>
-      <c r="D2182" s="6" t="s">
-        <v>19</v>
+        <v>5845</v>
+      </c>
+      <c r="C2182" s="8" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D2182" s="9" t="s">
+        <v>5876</v>
       </c>
       <c r="E2182" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2182" s="7" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2183" spans="1:6">
       <c r="A2183" s="3" t="s">
-        <v>5849</v>
+        <v>5846</v>
       </c>
       <c r="B2183" s="3" t="s">
-        <v>5850</v>
+        <v>5847</v>
       </c>
       <c r="C2183" s="3" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="D2183" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2183" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2183" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2183" s="7" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="2184" spans="1:6">
       <c r="A2184" s="3" t="s">
-        <v>5851</v>
+        <v>5848</v>
       </c>
       <c r="B2184" s="3" t="s">
-        <v>5852</v>
+        <v>5849</v>
       </c>
       <c r="C2184" s="3" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="D2184" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2184" s="7" t="s">
-        <v>5882</v>
+        <v>5877</v>
       </c>
       <c r="F2184" s="7" t="s">
-        <v>5881</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="2185" spans="1:6">
       <c r="A2185" s="3" t="s">
-        <v>5853</v>
+        <v>5850</v>
       </c>
       <c r="B2185" s="3" t="s">
-        <v>5854</v>
+        <v>5851</v>
       </c>
       <c r="C2185" s="3" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="D2185" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2185" s="7" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="F2185" s="7" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2186" spans="1:6">
       <c r="A2186" s="3" t="s">
-        <v>5855</v>
+        <v>5852</v>
       </c>
       <c r="B2186" s="3" t="s">
-        <v>5856</v>
+        <v>5853</v>
       </c>
       <c r="C2186" s="3" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="D2186" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2186" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2186" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2186" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2187" spans="1:6">
       <c r="A2187" s="3" t="s">
-        <v>5857</v>
+        <v>5854</v>
       </c>
       <c r="B2187" s="3" t="s">
-        <v>5858</v>
+        <v>5855</v>
       </c>
       <c r="C2187" s="3" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="D2187" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2187" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2187" s="7" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2188" spans="1:6">
       <c r="A2188" s="3" t="s">
-        <v>5859</v>
+        <v>5856</v>
       </c>
       <c r="B2188" s="3" t="s">
-        <v>5860</v>
+        <v>5857</v>
       </c>
       <c r="C2188" s="3" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="D2188" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2188" s="7" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="F2188" s="7" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2189" spans="1:6">
       <c r="A2189" s="3" t="s">
-        <v>5861</v>
+        <v>5858</v>
       </c>
       <c r="B2189" s="3" t="s">
-        <v>5862</v>
+        <v>5859</v>
       </c>
       <c r="C2189" s="3" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="D2189" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2189" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2189" s="7" t="s">
         <v>5878</v>
-      </c>
-      <c r="F2189" s="7" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="2190" spans="1:6">
       <c r="A2190" s="3" t="s">
-        <v>5863</v>
+        <v>5860</v>
       </c>
       <c r="B2190" s="3" t="s">
-        <v>5864</v>
-      </c>
-      <c r="C2190" s="3"/>
-      <c r="D2190" s="4"/>
-      <c r="E2190" s="3"/>
-      <c r="F2190" s="3"/>
+        <v>5861</v>
+      </c>
+      <c r="C2190" s="3" t="s">
+        <v>5639</v>
+      </c>
+      <c r="D2190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2190" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F2190" s="7" t="s">
+        <v>5882</v>
+      </c>
     </row>
     <row r="2191" spans="1:6">
       <c r="A2191" s="3" t="s">
-        <v>5865</v>
+        <v>5862</v>
       </c>
       <c r="B2191" s="3" t="s">
-        <v>5866</v>
-      </c>
-      <c r="C2191" s="3" t="s">
-        <v>5640</v>
-      </c>
-      <c r="D2191" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2191" s="7" t="s">
-        <v>5878</v>
-      </c>
-      <c r="F2191" s="7" t="s">
-        <v>5879</v>
-      </c>
+        <v>5863</v>
+      </c>
+      <c r="C2191" s="3"/>
+      <c r="D2191" s="4"/>
+      <c r="E2191" s="3"/>
+      <c r="F2191" s="3"/>
     </row>
     <row r="2192" spans="1:6">
       <c r="A2192" s="3" t="s">
-        <v>5867</v>
+        <v>5864</v>
       </c>
       <c r="B2192" s="3" t="s">
-        <v>5868</v>
+        <v>5865</v>
       </c>
       <c r="C2192" s="3" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="D2192" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2192" s="7" t="s">
-        <v>5885</v>
+        <v>5877</v>
       </c>
       <c r="F2192" s="7" t="s">
-        <v>5883</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="2193" spans="1:6">
       <c r="A2193" s="3" t="s">
-        <v>5869</v>
+        <v>5866</v>
       </c>
       <c r="B2193" s="3" t="s">
-        <v>5870</v>
+        <v>5867</v>
       </c>
       <c r="C2193" s="3" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="D2193" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2193" s="7" t="s">
-        <v>5878</v>
+        <v>5884</v>
       </c>
       <c r="F2193" s="7" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2194" spans="1:6">
       <c r="A2194" s="3" t="s">
-        <v>5871</v>
+        <v>5868</v>
       </c>
       <c r="B2194" s="3" t="s">
-        <v>5872</v>
+        <v>5869</v>
       </c>
       <c r="C2194" s="3" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="D2194" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2194" s="7" t="s">
-        <v>5882</v>
+        <v>5877</v>
       </c>
       <c r="F2194" s="7" t="s">
-        <v>5881</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="2195" spans="1:6">
       <c r="A2195" s="3" t="s">
-        <v>5873</v>
+        <v>5870</v>
       </c>
       <c r="B2195" s="3" t="s">
-        <v>5874</v>
+        <v>5871</v>
       </c>
       <c r="C2195" s="3" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="D2195" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2195" s="7" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="F2195" s="7" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2196" spans="1:6">
       <c r="A2196" s="3" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B2196" s="3" t="s">
+        <v>5873</v>
+      </c>
+      <c r="C2196" s="3" t="s">
+        <v>5644</v>
+      </c>
+      <c r="D2196" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2196" s="7" t="s">
+        <v>5881</v>
+      </c>
+      <c r="F2196" s="7" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:6">
+      <c r="A2197" s="3" t="s">
+        <v>5874</v>
+      </c>
+      <c r="B2197" s="3" t="s">
         <v>5875</v>
       </c>
-      <c r="B2196" s="3" t="s">
-        <v>5876</v>
-      </c>
-      <c r="C2196" s="3" t="s">
+      <c r="C2197" s="3" t="s">
         <v>5645</v>
       </c>
-      <c r="D2196" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2196" s="7" t="s">
-        <v>5882</v>
-      </c>
-      <c r="F2196" s="7" t="s">
+      <c r="D2197" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2197" s="7" t="s">
         <v>5881</v>
+      </c>
+      <c r="F2197" s="7" t="s">
+        <v>5880</v>
       </c>
     </row>
   </sheetData>
@@ -53674,17 +53705,18 @@
     <hyperlink ref="C1468" r:id="rId7" xr:uid="{749460E4-A35C-634C-A111-36431BBC0965}"/>
     <hyperlink ref="C1543" r:id="rId8" xr:uid="{A6FE53AD-0C1E-F949-B008-51D3A693E583}"/>
     <hyperlink ref="C2106" r:id="rId9" xr:uid="{C2822117-4111-8240-A6C9-F1ABE66B13C6}"/>
-    <hyperlink ref="C2159" r:id="rId10" xr:uid="{DFCB517F-74C5-914D-8820-A0AF67946992}"/>
+    <hyperlink ref="C2160" r:id="rId10" xr:uid="{DFCB517F-74C5-914D-8820-A0AF67946992}"/>
     <hyperlink ref="C2096" r:id="rId11" xr:uid="{6DF00A5F-60D5-2348-88F2-478F7C28EA67}"/>
     <hyperlink ref="C2108" r:id="rId12" xr:uid="{6F5B8AA3-386D-3643-A2FD-A93E66B3F590}"/>
     <hyperlink ref="C2113" r:id="rId13" xr:uid="{112AE26B-2CF3-4A40-92E2-E4151FD2A68F}"/>
     <hyperlink ref="C2136" r:id="rId14" xr:uid="{3413680E-A45B-C448-B508-88A640B64173}"/>
     <hyperlink ref="C2137" r:id="rId15" xr:uid="{7F5310D2-5BE9-B545-94A1-0BE970FA1C4F}"/>
-    <hyperlink ref="C2150" r:id="rId16" xr:uid="{9F6422F2-B3A1-C14A-8AE0-516C1A195DDA}"/>
-    <hyperlink ref="C2170" r:id="rId17" xr:uid="{9759F1C0-7D7D-9B49-9A7C-7BE3EA5441B7}"/>
-    <hyperlink ref="C2181" r:id="rId18" xr:uid="{65C6E9A7-1747-894B-8028-27F261184FE4}"/>
+    <hyperlink ref="C2151" r:id="rId16" xr:uid="{9F6422F2-B3A1-C14A-8AE0-516C1A195DDA}"/>
+    <hyperlink ref="C2171" r:id="rId17" xr:uid="{9759F1C0-7D7D-9B49-9A7C-7BE3EA5441B7}"/>
+    <hyperlink ref="C2182" r:id="rId18" xr:uid="{65C6E9A7-1747-894B-8028-27F261184FE4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F21 A473:B473 D473:F473 A474:F617 A23:F93 A22:B22 D22:F22 A95:F353 A94:B94 D94:F94 A381:F400 A380:B380 D380:F380 A402:F472 A401:B401 D401:F401 A619:F1256 A618:B618 D618:F618 A1314:F1412 A1313:B1313 D1313:F1313 A1414:F1467 A1413:B1413 D1413:F1413 A1469:F1542 A1468:B1468 D1468:F1468 A1544:F2081 A1543:B1543 D1543:F1543 A1258:F1312 A1257:B1257 D1257:F1257 A355:F379 A354:B354 D354:F354" numberStoredAsText="1"/>
   </ignoredErrors>
